--- a/Code/Results/Cases/Case_7_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033672456676544</v>
+        <v>1.028415067075898</v>
       </c>
       <c r="D2">
-        <v>1.050549530062117</v>
+        <v>1.046800934136201</v>
       </c>
       <c r="E2">
-        <v>1.044617893444519</v>
+        <v>1.040604995492723</v>
       </c>
       <c r="F2">
-        <v>1.05469856280794</v>
+        <v>1.050584238301896</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062762773503137</v>
+        <v>1.06138243501129</v>
       </c>
       <c r="J2">
-        <v>1.054890646670986</v>
+        <v>1.049777877585914</v>
       </c>
       <c r="K2">
-        <v>1.061346840203476</v>
+        <v>1.057644602744894</v>
       </c>
       <c r="L2">
-        <v>1.055488750511407</v>
+        <v>1.051526202020601</v>
       </c>
       <c r="M2">
-        <v>1.06544503994512</v>
+        <v>1.061381121133755</v>
       </c>
       <c r="N2">
-        <v>1.056388712386907</v>
+        <v>1.051268682583291</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040458370004934</v>
+        <v>1.032678551704447</v>
       </c>
       <c r="D3">
-        <v>1.055984673183502</v>
+        <v>1.050158594953991</v>
       </c>
       <c r="E3">
-        <v>1.050421832787913</v>
+        <v>1.04414647655319</v>
       </c>
       <c r="F3">
-        <v>1.060772338742698</v>
+        <v>1.054411265253931</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065240866042456</v>
+        <v>1.062907404062388</v>
       </c>
       <c r="J3">
-        <v>1.059903733908767</v>
+        <v>1.0523163435489</v>
       </c>
       <c r="K3">
-        <v>1.065948032563476</v>
+        <v>1.060187523718147</v>
       </c>
       <c r="L3">
-        <v>1.060447779613743</v>
+        <v>1.054244015423818</v>
       </c>
       <c r="M3">
-        <v>1.070682478416316</v>
+        <v>1.064392244550726</v>
       </c>
       <c r="N3">
-        <v>1.061408918783575</v>
+        <v>1.053810753459111</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044731921083121</v>
+        <v>1.03538478897592</v>
       </c>
       <c r="D4">
-        <v>1.059409247921916</v>
+        <v>1.052292116833379</v>
       </c>
       <c r="E4">
-        <v>1.054081972194064</v>
+        <v>1.046399760993753</v>
       </c>
       <c r="F4">
-        <v>1.064602873784227</v>
+        <v>1.05684582446022</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066787806719913</v>
+        <v>1.063865466146542</v>
       </c>
       <c r="J4">
-        <v>1.06305668993786</v>
+        <v>1.05392470384857</v>
       </c>
       <c r="K4">
-        <v>1.068839871052043</v>
+        <v>1.061797871626657</v>
       </c>
       <c r="L4">
-        <v>1.063568715628519</v>
+        <v>1.055968666010884</v>
       </c>
       <c r="M4">
-        <v>1.073979444501778</v>
+        <v>1.066303365682768</v>
       </c>
       <c r="N4">
-        <v>1.064566352371878</v>
+        <v>1.055421397814888</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046501823721412</v>
+        <v>1.036510328056979</v>
       </c>
       <c r="D5">
-        <v>1.060827870536475</v>
+        <v>1.053179960681371</v>
       </c>
       <c r="E5">
-        <v>1.055598958452777</v>
+        <v>1.047338159857015</v>
       </c>
       <c r="F5">
-        <v>1.066190538848884</v>
+        <v>1.057859623477772</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067425139122024</v>
+        <v>1.064261517129048</v>
       </c>
       <c r="J5">
-        <v>1.064361451931439</v>
+        <v>1.054592898675533</v>
       </c>
       <c r="K5">
-        <v>1.070036066934514</v>
+        <v>1.062466685616895</v>
       </c>
       <c r="L5">
-        <v>1.064860695122861</v>
+        <v>1.056685812287893</v>
       </c>
       <c r="M5">
-        <v>1.07534448910944</v>
+        <v>1.067098133403238</v>
       </c>
       <c r="N5">
-        <v>1.065872967277146</v>
+        <v>1.056090541555148</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046797471507983</v>
+        <v>1.036698609373241</v>
       </c>
       <c r="D6">
-        <v>1.061064856751494</v>
+        <v>1.053328508347711</v>
       </c>
       <c r="E6">
-        <v>1.055852423073596</v>
+        <v>1.047495208371003</v>
       </c>
       <c r="F6">
-        <v>1.066455816150354</v>
+        <v>1.058029285443503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067531402515754</v>
+        <v>1.064327626135272</v>
       </c>
       <c r="J6">
-        <v>1.064579338929888</v>
+        <v>1.054704631167742</v>
       </c>
       <c r="K6">
-        <v>1.070235793628696</v>
+        <v>1.062578509317959</v>
       </c>
       <c r="L6">
-        <v>1.065076474865233</v>
+        <v>1.056805767795336</v>
       </c>
       <c r="M6">
-        <v>1.075572483145202</v>
+        <v>1.067231077378412</v>
       </c>
       <c r="N6">
-        <v>1.066091163700125</v>
+        <v>1.056202432720313</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04475567373241</v>
+        <v>1.035399875745589</v>
       </c>
       <c r="D7">
-        <v>1.059428285097862</v>
+        <v>1.052304015603869</v>
       </c>
       <c r="E7">
-        <v>1.054102326247979</v>
+        <v>1.046412334456046</v>
       </c>
       <c r="F7">
-        <v>1.06462417594089</v>
+        <v>1.056859408560322</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066796373191571</v>
+        <v>1.063870784401633</v>
       </c>
       <c r="J7">
-        <v>1.063074204448314</v>
+        <v>1.053933663283492</v>
       </c>
       <c r="K7">
-        <v>1.068855930260964</v>
+        <v>1.061806840187965</v>
       </c>
       <c r="L7">
-        <v>1.063586056709186</v>
+        <v>1.055978279282739</v>
       </c>
       <c r="M7">
-        <v>1.073997765506153</v>
+        <v>1.066314019133409</v>
       </c>
       <c r="N7">
-        <v>1.064583891754946</v>
+        <v>1.055430369973236</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035990973254259</v>
+        <v>1.029867060218228</v>
       </c>
       <c r="D8">
-        <v>1.052406125829991</v>
+        <v>1.047943938043077</v>
       </c>
       <c r="E8">
-        <v>1.046599803726567</v>
+        <v>1.04180995948142</v>
       </c>
       <c r="F8">
-        <v>1.056772568915758</v>
+        <v>1.051886444490669</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063612301668817</v>
+        <v>1.06190384025783</v>
       </c>
       <c r="J8">
-        <v>1.056604284057971</v>
+        <v>1.050642984704999</v>
       </c>
       <c r="K8">
-        <v>1.062920102277327</v>
+        <v>1.058511399456498</v>
       </c>
       <c r="L8">
-        <v>1.057183487267239</v>
+        <v>1.05245187395606</v>
       </c>
       <c r="M8">
-        <v>1.067234749576137</v>
+        <v>1.06240662102597</v>
       </c>
       <c r="N8">
-        <v>1.058104783335539</v>
+        <v>1.052135018253715</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019578365646221</v>
+        <v>1.019695831103209</v>
       </c>
       <c r="D9">
-        <v>1.03927436075377</v>
+        <v>1.03994845604098</v>
       </c>
       <c r="E9">
-        <v>1.032594746724392</v>
+        <v>1.033393281044773</v>
       </c>
       <c r="F9">
-        <v>1.042117631115724</v>
+        <v>1.042788652704926</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057542095625313</v>
+        <v>1.058210900770894</v>
       </c>
       <c r="J9">
-        <v>1.044458212192531</v>
+        <v>1.044571748793687</v>
       </c>
       <c r="K9">
-        <v>1.051760828670312</v>
+        <v>1.052425020152496</v>
       </c>
       <c r="L9">
-        <v>1.045180240523752</v>
+        <v>1.045966850813908</v>
       </c>
       <c r="M9">
-        <v>1.054562436040867</v>
+        <v>1.055223667057102</v>
       </c>
       <c r="N9">
-        <v>1.045941462654876</v>
+        <v>1.046055160491028</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00787877867344</v>
+        <v>1.012602718986311</v>
       </c>
       <c r="D10">
-        <v>1.029931974274246</v>
+        <v>1.034388958757419</v>
       </c>
       <c r="E10">
-        <v>1.022647006427719</v>
+        <v>1.027556121760911</v>
       </c>
       <c r="F10">
-        <v>1.031709357259142</v>
+        <v>1.036476555468868</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053145613251341</v>
+        <v>1.055585761215613</v>
       </c>
       <c r="J10">
-        <v>1.035783251756425</v>
+        <v>1.040325088156534</v>
       </c>
       <c r="K10">
-        <v>1.043781040110733</v>
+        <v>1.048163881219001</v>
       </c>
       <c r="L10">
-        <v>1.036619056986791</v>
+        <v>1.041445049589066</v>
       </c>
       <c r="M10">
-        <v>1.045528756840852</v>
+        <v>1.05021703215645</v>
       </c>
       <c r="N10">
-        <v>1.037254182779919</v>
+        <v>1.041802469108671</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002605542239011</v>
+        <v>1.009450342110996</v>
       </c>
       <c r="D11">
-        <v>1.025727163317209</v>
+        <v>1.031922709991284</v>
       </c>
       <c r="E11">
-        <v>1.018173265370212</v>
+        <v>1.024970211488113</v>
       </c>
       <c r="F11">
-        <v>1.027028727472787</v>
+        <v>1.033679569848507</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051148525657212</v>
+        <v>1.054407796434584</v>
       </c>
       <c r="J11">
-        <v>1.031870327893681</v>
+        <v>1.038435192787574</v>
       </c>
       <c r="K11">
-        <v>1.040179682276283</v>
+        <v>1.046266716268712</v>
       </c>
       <c r="L11">
-        <v>1.032760409877276</v>
+        <v>1.039436104811929</v>
       </c>
       <c r="M11">
-        <v>1.041458309215842</v>
+        <v>1.047993111649298</v>
       </c>
       <c r="N11">
-        <v>1.033335702116471</v>
+        <v>1.039909889871514</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000613036537376</v>
+        <v>1.008266606062873</v>
       </c>
       <c r="D12">
-        <v>1.024139415613844</v>
+        <v>1.030997362588024</v>
       </c>
       <c r="E12">
-        <v>1.01648447521751</v>
+        <v>1.024000486055453</v>
       </c>
       <c r="F12">
-        <v>1.025261869832903</v>
+        <v>1.03263058352172</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050391682645316</v>
+        <v>1.053963815973359</v>
       </c>
       <c r="J12">
-        <v>1.030391474197874</v>
+        <v>1.03772518250973</v>
       </c>
       <c r="K12">
-        <v>1.038818308492943</v>
+        <v>1.045553859145882</v>
       </c>
       <c r="L12">
-        <v>1.031302529467213</v>
+        <v>1.038681880481736</v>
       </c>
       <c r="M12">
-        <v>1.03992058425582</v>
+        <v>1.04715824212043</v>
       </c>
       <c r="N12">
-        <v>1.03185474827879</v>
+        <v>1.039198871297636</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001042010875865</v>
+        <v>1.008521111415361</v>
       </c>
       <c r="D13">
-        <v>1.024481198011997</v>
+        <v>1.031196279327648</v>
       </c>
       <c r="E13">
-        <v>1.016847985797757</v>
+        <v>1.024208919147296</v>
       </c>
       <c r="F13">
-        <v>1.025642183027513</v>
+        <v>1.032856057899411</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050554725835238</v>
+        <v>1.054059346245211</v>
       </c>
       <c r="J13">
-        <v>1.030709876328596</v>
+        <v>1.037877850818483</v>
       </c>
       <c r="K13">
-        <v>1.039111428708924</v>
+        <v>1.045707144683024</v>
       </c>
       <c r="L13">
-        <v>1.031616394948955</v>
+        <v>1.038844032690237</v>
       </c>
       <c r="M13">
-        <v>1.040251631267262</v>
+        <v>1.047337729522182</v>
       </c>
       <c r="N13">
-        <v>1.032173602577058</v>
+        <v>1.039351756412898</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002441546864334</v>
+        <v>1.00935275909219</v>
       </c>
       <c r="D14">
-        <v>1.025596459757269</v>
+        <v>1.031846412145814</v>
       </c>
       <c r="E14">
-        <v>1.018034233853185</v>
+        <v>1.024890244015734</v>
       </c>
       <c r="F14">
-        <v>1.026883268355349</v>
+        <v>1.033593068410495</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051086277722847</v>
+        <v>1.054371229477329</v>
       </c>
       <c r="J14">
-        <v>1.031748615631283</v>
+        <v>1.03837666878674</v>
       </c>
       <c r="K14">
-        <v>1.040067644208034</v>
+        <v>1.04620795991465</v>
       </c>
       <c r="L14">
-        <v>1.032640414326667</v>
+        <v>1.039373925978901</v>
       </c>
       <c r="M14">
-        <v>1.041331738160451</v>
+        <v>1.047924283067856</v>
       </c>
       <c r="N14">
-        <v>1.0332138170087</v>
+        <v>1.039851282759886</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003299284939053</v>
+        <v>1.009863448580899</v>
       </c>
       <c r="D15">
-        <v>1.026280116728003</v>
+        <v>1.032245738813856</v>
       </c>
       <c r="E15">
-        <v>1.018761471418649</v>
+        <v>1.025308797869216</v>
       </c>
       <c r="F15">
-        <v>1.027644128256885</v>
+        <v>1.03404581698017</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051411759988724</v>
+        <v>1.054562531533159</v>
       </c>
       <c r="J15">
-        <v>1.032385188680149</v>
+        <v>1.038682933649739</v>
       </c>
       <c r="K15">
-        <v>1.040653608833985</v>
+        <v>1.046515436048653</v>
       </c>
       <c r="L15">
-        <v>1.03326802751974</v>
+        <v>1.039699337978797</v>
       </c>
       <c r="M15">
-        <v>1.041993750516927</v>
+        <v>1.048284499028069</v>
       </c>
       <c r="N15">
-        <v>1.033851294064311</v>
+        <v>1.040157982554119</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008224159860861</v>
+        <v>1.012810172014246</v>
       </c>
       <c r="D16">
-        <v>1.030207513309042</v>
+        <v>1.034551358607164</v>
       </c>
       <c r="E16">
-        <v>1.022940239518415</v>
+        <v>1.02772647379353</v>
       </c>
       <c r="F16">
-        <v>1.032016155370965</v>
+        <v>1.03666079797112</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053276102561647</v>
+        <v>1.055663049979796</v>
       </c>
       <c r="J16">
-        <v>1.036039483423574</v>
+        <v>1.040449409289758</v>
       </c>
       <c r="K16">
-        <v>1.044016830143686</v>
+        <v>1.048288664040774</v>
       </c>
       <c r="L16">
-        <v>1.036871796979422</v>
+        <v>1.041577272901378</v>
       </c>
       <c r="M16">
-        <v>1.045795394064938</v>
+        <v>1.050363413455991</v>
       </c>
       <c r="N16">
-        <v>1.037510778325426</v>
+        <v>1.041926966792165</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.011256137836358</v>
+        <v>1.014636451019335</v>
       </c>
       <c r="D17">
-        <v>1.032627065931595</v>
+        <v>1.035981544488053</v>
       </c>
       <c r="E17">
-        <v>1.025515562962147</v>
+        <v>1.029227090749779</v>
       </c>
       <c r="F17">
-        <v>1.03471063887674</v>
+        <v>1.038283697335958</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054419878307057</v>
+        <v>1.056342169330739</v>
       </c>
       <c r="J17">
-        <v>1.038288527163618</v>
+        <v>1.041543563241596</v>
       </c>
       <c r="K17">
-        <v>1.046086226944203</v>
+        <v>1.049386788230814</v>
       </c>
       <c r="L17">
-        <v>1.039090528884029</v>
+        <v>1.042741361032851</v>
       </c>
       <c r="M17">
-        <v>1.048136257401797</v>
+        <v>1.051652196397644</v>
       </c>
       <c r="N17">
-        <v>1.039763015965549</v>
+        <v>1.043022674568115</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013004838429305</v>
+        <v>1.015693916882246</v>
       </c>
       <c r="D18">
-        <v>1.034023102233677</v>
+        <v>1.036810089344156</v>
       </c>
       <c r="E18">
-        <v>1.027001810196599</v>
+        <v>1.03009677277092</v>
       </c>
       <c r="F18">
-        <v>1.036265676049715</v>
+        <v>1.039224184328628</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055078086972559</v>
+        <v>1.056734323444653</v>
       </c>
       <c r="J18">
-        <v>1.039585384232857</v>
+        <v>1.042176862439659</v>
       </c>
       <c r="K18">
-        <v>1.047279304989244</v>
+        <v>1.050022306410821</v>
       </c>
       <c r="L18">
-        <v>1.040370184614571</v>
+        <v>1.04341546066043</v>
       </c>
       <c r="M18">
-        <v>1.049486461534086</v>
+        <v>1.05239854473299</v>
       </c>
       <c r="N18">
-        <v>1.041061714720578</v>
+        <v>1.04365687312368</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013597817387815</v>
+        <v>1.016053185709268</v>
       </c>
       <c r="D19">
-        <v>1.034496583466053</v>
+        <v>1.037091654196984</v>
       </c>
       <c r="E19">
-        <v>1.027505944814292</v>
+        <v>1.030392374280872</v>
       </c>
       <c r="F19">
-        <v>1.036793147900107</v>
+        <v>1.039543841522383</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055301032121858</v>
+        <v>1.056867372208859</v>
       </c>
       <c r="J19">
-        <v>1.040025093491913</v>
+        <v>1.042391979780055</v>
       </c>
       <c r="K19">
-        <v>1.047683794211706</v>
+        <v>1.050238163842887</v>
       </c>
       <c r="L19">
-        <v>1.040804108222052</v>
+        <v>1.043644491631346</v>
       </c>
       <c r="M19">
-        <v>1.049944326057455</v>
+        <v>1.052652129681091</v>
       </c>
       <c r="N19">
-        <v>1.041502048417217</v>
+        <v>1.043872295955374</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010932901623284</v>
+        <v>1.014441316874394</v>
       </c>
       <c r="D20">
-        <v>1.032369061263177</v>
+        <v>1.035828687277864</v>
       </c>
       <c r="E20">
-        <v>1.025240913409873</v>
+        <v>1.029066671279587</v>
       </c>
       <c r="F20">
-        <v>1.034423279106509</v>
+        <v>1.03811021224017</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054298093242612</v>
+        <v>1.056269717976305</v>
       </c>
       <c r="J20">
-        <v>1.038048787682758</v>
+        <v>1.041426680385651</v>
       </c>
       <c r="K20">
-        <v>1.045865656692987</v>
+        <v>1.049269489391892</v>
       </c>
       <c r="L20">
-        <v>1.038853991618997</v>
+        <v>1.042616974020149</v>
       </c>
       <c r="M20">
-        <v>1.047886688452213</v>
+        <v>1.051514481096583</v>
       </c>
       <c r="N20">
-        <v>1.039522936027128</v>
+        <v>1.042905625725109</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002030374055023</v>
+        <v>1.009108218281293</v>
       </c>
       <c r="D21">
-        <v>1.025268774359456</v>
+        <v>1.031655223681692</v>
       </c>
       <c r="E21">
-        <v>1.017685677591577</v>
+        <v>1.024689868480539</v>
       </c>
       <c r="F21">
-        <v>1.026518598388884</v>
+        <v>1.033376318890177</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050930172649157</v>
+        <v>1.054279567133728</v>
       </c>
       <c r="J21">
-        <v>1.031443450759417</v>
+        <v>1.038230003590404</v>
       </c>
       <c r="K21">
-        <v>1.039786730795589</v>
+        <v>1.04606071058932</v>
       </c>
       <c r="L21">
-        <v>1.032339561159908</v>
+        <v>1.039218109761985</v>
       </c>
       <c r="M21">
-        <v>1.041014401752568</v>
+        <v>1.047751804030094</v>
       </c>
       <c r="N21">
-        <v>1.032908218767713</v>
+        <v>1.039704409282148</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9962359498882258</v>
+        <v>1.005680670668995</v>
       </c>
       <c r="D22">
-        <v>1.02065360815743</v>
+        <v>1.028977326772745</v>
       </c>
       <c r="E22">
-        <v>1.012777740201551</v>
+        <v>1.021884518242157</v>
       </c>
       <c r="F22">
-        <v>1.02138383743409</v>
+        <v>1.030341463471994</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048725050788099</v>
+        <v>1.05299094122222</v>
       </c>
       <c r="J22">
-        <v>1.027142244445979</v>
+        <v>1.036173542408337</v>
       </c>
       <c r="K22">
-        <v>1.035826724000267</v>
+        <v>1.043995794330942</v>
       </c>
       <c r="L22">
-        <v>1.028100247468034</v>
+        <v>1.037034557500162</v>
       </c>
       <c r="M22">
-        <v>1.036543254483433</v>
+        <v>1.045334896746483</v>
       </c>
       <c r="N22">
-        <v>1.028600904247955</v>
+        <v>1.037645027689323</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9993273314228867</v>
+        <v>1.007504954131318</v>
       </c>
       <c r="D23">
-        <v>1.023115205216643</v>
+        <v>1.030402183077886</v>
       </c>
       <c r="E23">
-        <v>1.015395224830476</v>
+        <v>1.02337690811566</v>
       </c>
       <c r="F23">
-        <v>1.024122275113103</v>
+        <v>1.031956006350986</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049902695353237</v>
+        <v>1.053677687120851</v>
       </c>
       <c r="J23">
-        <v>1.029437129143529</v>
+        <v>1.037268248744137</v>
       </c>
       <c r="K23">
-        <v>1.037939702852576</v>
+        <v>1.045095061725262</v>
       </c>
       <c r="L23">
-        <v>1.03036185080286</v>
+        <v>1.038196636586325</v>
       </c>
       <c r="M23">
-        <v>1.038928437703477</v>
+        <v>1.046621131631811</v>
       </c>
       <c r="N23">
-        <v>1.030899047945002</v>
+        <v>1.038741288633685</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011079019148263</v>
+        <v>1.014529513566381</v>
       </c>
       <c r="D24">
-        <v>1.032485689444542</v>
+        <v>1.035897774327672</v>
       </c>
       <c r="E24">
-        <v>1.025365064689526</v>
+        <v>1.029139175215295</v>
       </c>
       <c r="F24">
-        <v>1.034553175786201</v>
+        <v>1.038188621574392</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054353150212489</v>
+        <v>1.056302467860001</v>
       </c>
       <c r="J24">
-        <v>1.038157161762892</v>
+        <v>1.041479509841565</v>
       </c>
       <c r="K24">
-        <v>1.045965365926775</v>
+        <v>1.049322507112004</v>
       </c>
       <c r="L24">
-        <v>1.038960917279718</v>
+        <v>1.042673194253217</v>
       </c>
       <c r="M24">
-        <v>1.047999504692205</v>
+        <v>1.0515767253015</v>
       </c>
       <c r="N24">
-        <v>1.039631464010886</v>
+        <v>1.042958530204909</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02394649851918</v>
+        <v>1.022378167553925</v>
       </c>
       <c r="D25">
-        <v>1.04276664223588</v>
+        <v>1.042054407349738</v>
       </c>
       <c r="E25">
-        <v>1.036316470652594</v>
+        <v>1.035607512673556</v>
       </c>
       <c r="F25">
-        <v>1.04601186230593</v>
+        <v>1.045182493606035</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059169789661517</v>
+        <v>1.05919355980596</v>
       </c>
       <c r="J25">
-        <v>1.047693995013638</v>
+        <v>1.046175194108258</v>
       </c>
       <c r="K25">
-        <v>1.05473545059984</v>
+        <v>1.054033165203624</v>
       </c>
       <c r="L25">
-        <v>1.048376014790734</v>
+        <v>1.047677117046045</v>
       </c>
       <c r="M25">
-        <v>1.057935553218847</v>
+        <v>1.057117681398187</v>
       </c>
       <c r="N25">
-        <v>1.049181840658739</v>
+        <v>1.047660882881864</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028415067075898</v>
+        <v>1.017189896438888</v>
       </c>
       <c r="D2">
-        <v>1.046800934136201</v>
+        <v>1.035593502001575</v>
       </c>
       <c r="E2">
-        <v>1.040604995492723</v>
+        <v>1.0308482111972</v>
       </c>
       <c r="F2">
-        <v>1.050584238301896</v>
+        <v>1.040568681410302</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06138243501129</v>
+        <v>1.054332703054967</v>
       </c>
       <c r="J2">
-        <v>1.049777877585914</v>
+        <v>1.038868341341173</v>
       </c>
       <c r="K2">
-        <v>1.057644602744894</v>
+        <v>1.046578271743736</v>
       </c>
       <c r="L2">
-        <v>1.051526202020601</v>
+        <v>1.041893880300316</v>
       </c>
       <c r="M2">
-        <v>1.061381121133755</v>
+        <v>1.05149034577965</v>
       </c>
       <c r="N2">
-        <v>1.051268682583291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016798768286725</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.049323492246526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032678551704447</v>
+        <v>1.020555125413134</v>
       </c>
       <c r="D3">
-        <v>1.050158594953991</v>
+        <v>1.037991964804373</v>
       </c>
       <c r="E3">
-        <v>1.04414647655319</v>
+        <v>1.033449120524744</v>
       </c>
       <c r="F3">
-        <v>1.054411265253931</v>
+        <v>1.043115260167798</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062907404062388</v>
+        <v>1.055256366730886</v>
       </c>
       <c r="J3">
-        <v>1.0523163435489</v>
+        <v>1.040500700791101</v>
       </c>
       <c r="K3">
-        <v>1.060187523718147</v>
+        <v>1.04816075663307</v>
       </c>
       <c r="L3">
-        <v>1.054244015423818</v>
+        <v>1.043671180427681</v>
       </c>
       <c r="M3">
-        <v>1.064392244550726</v>
+        <v>1.053224665372677</v>
       </c>
       <c r="N3">
-        <v>1.053810753459111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017345793375383</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050696072122192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03538478897592</v>
+        <v>1.02269650492543</v>
       </c>
       <c r="D4">
-        <v>1.052292116833379</v>
+        <v>1.039520652308428</v>
       </c>
       <c r="E4">
-        <v>1.046399760993753</v>
+        <v>1.035109677645431</v>
       </c>
       <c r="F4">
-        <v>1.05684582446022</v>
+        <v>1.044741648257867</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063865466146542</v>
+        <v>1.055834527293879</v>
       </c>
       <c r="J4">
-        <v>1.05392470384857</v>
+        <v>1.041536926439353</v>
       </c>
       <c r="K4">
-        <v>1.061797871626657</v>
+        <v>1.049164395065497</v>
       </c>
       <c r="L4">
-        <v>1.055968666010884</v>
+        <v>1.044802050794096</v>
       </c>
       <c r="M4">
-        <v>1.066303365682768</v>
+        <v>1.054328481290183</v>
       </c>
       <c r="N4">
-        <v>1.055421397814888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01769299692596</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.051569655771073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036510328056979</v>
+        <v>1.023588308109895</v>
       </c>
       <c r="D5">
-        <v>1.053179960681371</v>
+        <v>1.040157854917644</v>
       </c>
       <c r="E5">
-        <v>1.047338159857015</v>
+        <v>1.035802536221207</v>
       </c>
       <c r="F5">
-        <v>1.057859623477772</v>
+        <v>1.045420371429641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064261517129048</v>
+        <v>1.056072974771508</v>
       </c>
       <c r="J5">
-        <v>1.054592898675533</v>
+        <v>1.041967855006949</v>
       </c>
       <c r="K5">
-        <v>1.062466685616895</v>
+        <v>1.049581542606239</v>
       </c>
       <c r="L5">
-        <v>1.056685812287893</v>
+        <v>1.04527297375879</v>
       </c>
       <c r="M5">
-        <v>1.067098133403238</v>
+        <v>1.054788207103495</v>
       </c>
       <c r="N5">
-        <v>1.056090541555148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017837373108424</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.0519334923635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036698609373241</v>
+        <v>1.023737557572614</v>
       </c>
       <c r="D6">
-        <v>1.053328508347711</v>
+        <v>1.040264527280164</v>
       </c>
       <c r="E6">
-        <v>1.047495208371003</v>
+        <v>1.035918566504471</v>
       </c>
       <c r="F6">
-        <v>1.058029285443503</v>
+        <v>1.045534041564433</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064327626135272</v>
+        <v>1.056112742444808</v>
       </c>
       <c r="J6">
-        <v>1.054704631167742</v>
+        <v>1.042039936775404</v>
       </c>
       <c r="K6">
-        <v>1.062578509317959</v>
+        <v>1.049651305539862</v>
       </c>
       <c r="L6">
-        <v>1.056805767795336</v>
+        <v>1.045351782837596</v>
       </c>
       <c r="M6">
-        <v>1.067231077378412</v>
+        <v>1.054865146352169</v>
       </c>
       <c r="N6">
-        <v>1.056202432720313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017861522217011</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051994383671611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035399875745589</v>
+        <v>1.022708454089892</v>
       </c>
       <c r="D7">
-        <v>1.052304015603869</v>
+        <v>1.039529187934768</v>
       </c>
       <c r="E7">
-        <v>1.046412334456046</v>
+        <v>1.035118956081342</v>
       </c>
       <c r="F7">
-        <v>1.056859408560322</v>
+        <v>1.044750736923948</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063870784401633</v>
+        <v>1.055837731481354</v>
       </c>
       <c r="J7">
-        <v>1.053933663283492</v>
+        <v>1.041542702878103</v>
       </c>
       <c r="K7">
-        <v>1.061806840187965</v>
+        <v>1.049169987688847</v>
       </c>
       <c r="L7">
-        <v>1.055978279282739</v>
+        <v>1.044808360831023</v>
       </c>
       <c r="M7">
-        <v>1.066314019133409</v>
+        <v>1.054334641022571</v>
       </c>
       <c r="N7">
-        <v>1.055430369973236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017694932289204</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051574530712861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029867060218228</v>
+        <v>1.01833481199705</v>
       </c>
       <c r="D8">
-        <v>1.047943938043077</v>
+        <v>1.036408964343686</v>
       </c>
       <c r="E8">
-        <v>1.04180995948142</v>
+        <v>1.031731915934064</v>
       </c>
       <c r="F8">
-        <v>1.051886444490669</v>
+        <v>1.041433816368319</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06190384025783</v>
+        <v>1.054648936363012</v>
       </c>
       <c r="J8">
-        <v>1.050642984704999</v>
+        <v>1.039424206724308</v>
       </c>
       <c r="K8">
-        <v>1.058511399456498</v>
+        <v>1.047117343370817</v>
       </c>
       <c r="L8">
-        <v>1.05245187395606</v>
+        <v>1.042498551443578</v>
       </c>
       <c r="M8">
-        <v>1.06240662102597</v>
+        <v>1.052080331881129</v>
       </c>
       <c r="N8">
-        <v>1.052135018253715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016985055591039</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049790420916826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019695831103209</v>
+        <v>1.010340693949821</v>
       </c>
       <c r="D9">
-        <v>1.03994845604098</v>
+        <v>1.030727073080262</v>
       </c>
       <c r="E9">
-        <v>1.033393281044773</v>
+        <v>1.025586137751286</v>
       </c>
       <c r="F9">
-        <v>1.042788652704926</v>
+        <v>1.035419477903647</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058210900770894</v>
+        <v>1.052401879181262</v>
       </c>
       <c r="J9">
-        <v>1.044571748793687</v>
+        <v>1.035533506687172</v>
       </c>
       <c r="K9">
-        <v>1.052425020152496</v>
+        <v>1.043340547542469</v>
       </c>
       <c r="L9">
-        <v>1.045966850813908</v>
+        <v>1.038277302304796</v>
       </c>
       <c r="M9">
-        <v>1.055223667057102</v>
+        <v>1.047962896625781</v>
       </c>
       <c r="N9">
-        <v>1.046055160491028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015681009576488</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.046531781128552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012602718986311</v>
+        <v>1.004851682110658</v>
       </c>
       <c r="D10">
-        <v>1.034388958757419</v>
+        <v>1.0268601476798</v>
       </c>
       <c r="E10">
-        <v>1.027556121760911</v>
+        <v>1.02142112415813</v>
       </c>
       <c r="F10">
-        <v>1.036476555468868</v>
+        <v>1.031379149079885</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055585761215613</v>
+        <v>1.050829037672088</v>
       </c>
       <c r="J10">
-        <v>1.040325088156534</v>
+        <v>1.032874120562715</v>
       </c>
       <c r="K10">
-        <v>1.048163881219001</v>
+        <v>1.040760797599763</v>
       </c>
       <c r="L10">
-        <v>1.041445049589066</v>
+        <v>1.035414092817139</v>
       </c>
       <c r="M10">
-        <v>1.05021703215645</v>
+        <v>1.04520405019586</v>
       </c>
       <c r="N10">
-        <v>1.041802469108671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014793377437863</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044399425434196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009450342110996</v>
+        <v>1.002812774298161</v>
       </c>
       <c r="D11">
-        <v>1.031922709991284</v>
+        <v>1.025571994168887</v>
       </c>
       <c r="E11">
-        <v>1.024970211488113</v>
+        <v>1.020064470986931</v>
       </c>
       <c r="F11">
-        <v>1.033679569848507</v>
+        <v>1.030324710509782</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054407796434584</v>
+        <v>1.050375552556348</v>
       </c>
       <c r="J11">
-        <v>1.038435192787574</v>
+        <v>1.032069004930396</v>
       </c>
       <c r="K11">
-        <v>1.046266716268712</v>
+        <v>1.040027252680983</v>
       </c>
       <c r="L11">
-        <v>1.039436104811929</v>
+        <v>1.034617667408858</v>
       </c>
       <c r="M11">
-        <v>1.047993111649298</v>
+        <v>1.044696543418534</v>
       </c>
       <c r="N11">
-        <v>1.039909889871514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014557653192327</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044431025647285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008266606062873</v>
+        <v>1.002194975398842</v>
       </c>
       <c r="D12">
-        <v>1.030997362588024</v>
+        <v>1.025245939272944</v>
       </c>
       <c r="E12">
-        <v>1.024000486055453</v>
+        <v>1.01973490001761</v>
       </c>
       <c r="F12">
-        <v>1.03263058352172</v>
+        <v>1.030197822626832</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053963815973359</v>
+        <v>1.050298365547559</v>
       </c>
       <c r="J12">
-        <v>1.03772518250973</v>
+        <v>1.031906729558738</v>
       </c>
       <c r="K12">
-        <v>1.045553859145882</v>
+        <v>1.039904939679335</v>
       </c>
       <c r="L12">
-        <v>1.038681880481736</v>
+        <v>1.034493531725712</v>
       </c>
       <c r="M12">
-        <v>1.04715824212043</v>
+        <v>1.044768479999704</v>
       </c>
       <c r="N12">
-        <v>1.039198871297636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014530317341992</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.044812285680918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008521111415361</v>
+        <v>1.00263185432822</v>
       </c>
       <c r="D13">
-        <v>1.031196279327648</v>
+        <v>1.025641359631882</v>
       </c>
       <c r="E13">
-        <v>1.024208919147296</v>
+        <v>1.020176351806402</v>
       </c>
       <c r="F13">
-        <v>1.032856057899411</v>
+        <v>1.030786224013249</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054059346245211</v>
+        <v>1.050511964234628</v>
       </c>
       <c r="J13">
-        <v>1.037877850818483</v>
+        <v>1.032233030259101</v>
       </c>
       <c r="K13">
-        <v>1.045707144683024</v>
+        <v>1.040250822589386</v>
       </c>
       <c r="L13">
-        <v>1.038844032690237</v>
+        <v>1.034884179305692</v>
       </c>
       <c r="M13">
-        <v>1.047337729522182</v>
+        <v>1.045304320582535</v>
       </c>
       <c r="N13">
-        <v>1.039351756412898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014663091102305</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045511097161814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00935275909219</v>
+        <v>1.003414762325947</v>
       </c>
       <c r="D14">
-        <v>1.031846412145814</v>
+        <v>1.026244057363033</v>
       </c>
       <c r="E14">
-        <v>1.024890244015734</v>
+        <v>1.020833545729909</v>
       </c>
       <c r="F14">
-        <v>1.033593068410495</v>
+        <v>1.031521256086276</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054371229477329</v>
+        <v>1.05079230732362</v>
       </c>
       <c r="J14">
-        <v>1.03837666878674</v>
+        <v>1.032681622064233</v>
       </c>
       <c r="K14">
-        <v>1.04620795991465</v>
+        <v>1.040703801238251</v>
       </c>
       <c r="L14">
-        <v>1.039373925978901</v>
+        <v>1.035389451869937</v>
       </c>
       <c r="M14">
-        <v>1.047924283067856</v>
+        <v>1.045888465325867</v>
       </c>
       <c r="N14">
-        <v>1.039851282759886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014828070040616</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04614532476129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009863448580899</v>
+        <v>1.003837352995095</v>
       </c>
       <c r="D15">
-        <v>1.032245738813856</v>
+        <v>1.026552064851317</v>
       </c>
       <c r="E15">
-        <v>1.025308797869216</v>
+        <v>1.021166556517652</v>
       </c>
       <c r="F15">
-        <v>1.03404581698017</v>
+        <v>1.031865869881026</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054562531533159</v>
+        <v>1.050926586503587</v>
       </c>
       <c r="J15">
-        <v>1.038682933649739</v>
+        <v>1.032901232035508</v>
       </c>
       <c r="K15">
-        <v>1.046515436048653</v>
+        <v>1.040920791376788</v>
       </c>
       <c r="L15">
-        <v>1.039699337978797</v>
+        <v>1.035630271159237</v>
       </c>
       <c r="M15">
-        <v>1.048284499028069</v>
+        <v>1.046142130110548</v>
       </c>
       <c r="N15">
-        <v>1.040157982554119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014904596459101</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.046383189122419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1091,93 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012810172014246</v>
+        <v>1.006075354843534</v>
       </c>
       <c r="D16">
-        <v>1.034551358607164</v>
+        <v>1.028115501530795</v>
       </c>
       <c r="E16">
-        <v>1.02772647379353</v>
+        <v>1.022846155934172</v>
       </c>
       <c r="F16">
-        <v>1.03666079797112</v>
+        <v>1.033484850790787</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055663049979796</v>
+        <v>1.051567487317233</v>
       </c>
       <c r="J16">
-        <v>1.040449409289758</v>
+        <v>1.03397396549558</v>
       </c>
       <c r="K16">
-        <v>1.048288664040774</v>
+        <v>1.041959779146061</v>
       </c>
       <c r="L16">
-        <v>1.041577272901378</v>
+        <v>1.036779310649755</v>
       </c>
       <c r="M16">
-        <v>1.050363413455991</v>
+        <v>1.047239764420399</v>
       </c>
       <c r="N16">
-        <v>1.041926966792165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015258200799963</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047212223775546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014636451019335</v>
+        <v>1.00738296056277</v>
       </c>
       <c r="D17">
-        <v>1.035981544488053</v>
+        <v>1.02899927223165</v>
       </c>
       <c r="E17">
-        <v>1.029227090749779</v>
+        <v>1.023790903592215</v>
       </c>
       <c r="F17">
-        <v>1.038283697335958</v>
+        <v>1.034338174954914</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056342169330739</v>
+        <v>1.05190913167517</v>
       </c>
       <c r="J17">
-        <v>1.041543563241596</v>
+        <v>1.034560349396173</v>
       </c>
       <c r="K17">
-        <v>1.049386788230814</v>
+        <v>1.042517251888736</v>
       </c>
       <c r="L17">
-        <v>1.042741361032851</v>
+        <v>1.03739426603535</v>
       </c>
       <c r="M17">
-        <v>1.051652196397644</v>
+        <v>1.04776977688141</v>
       </c>
       <c r="N17">
-        <v>1.043022674568115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015442364863022</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047502769481181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015693916882246</v>
+        <v>1.008006960140055</v>
       </c>
       <c r="D18">
-        <v>1.036810089344156</v>
+        <v>1.02936762860623</v>
       </c>
       <c r="E18">
-        <v>1.03009677277092</v>
+        <v>1.024174730786832</v>
       </c>
       <c r="F18">
-        <v>1.039224184328628</v>
+        <v>1.034580401487357</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056734323444653</v>
+        <v>1.052018664467045</v>
       </c>
       <c r="J18">
-        <v>1.042176862439659</v>
+        <v>1.034770849987967</v>
       </c>
       <c r="K18">
-        <v>1.050022306410821</v>
+        <v>1.04269798767618</v>
       </c>
       <c r="L18">
-        <v>1.04341546066043</v>
+        <v>1.037588828159482</v>
       </c>
       <c r="M18">
-        <v>1.05239854473299</v>
+        <v>1.047827784382707</v>
       </c>
       <c r="N18">
-        <v>1.04365687312368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015492995185886</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047312289889272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016053185709268</v>
+        <v>1.008006972674323</v>
       </c>
       <c r="D19">
-        <v>1.037091654196984</v>
+        <v>1.029264260126111</v>
       </c>
       <c r="E19">
-        <v>1.030392374280872</v>
+        <v>1.02404421325666</v>
       </c>
       <c r="F19">
-        <v>1.039543841522383</v>
+        <v>1.034262208436401</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056867372208859</v>
+        <v>1.051917170080347</v>
       </c>
       <c r="J19">
-        <v>1.042391979780055</v>
+        <v>1.034637982184602</v>
       </c>
       <c r="K19">
-        <v>1.050238163842887</v>
+        <v>1.042534334430434</v>
       </c>
       <c r="L19">
-        <v>1.043644491631346</v>
+        <v>1.037398039667554</v>
       </c>
       <c r="M19">
-        <v>1.052652129681091</v>
+        <v>1.047453107990721</v>
       </c>
       <c r="N19">
-        <v>1.043872295955374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015423064309506</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046692639182955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014441316874394</v>
+        <v>1.00627366454697</v>
       </c>
       <c r="D20">
-        <v>1.035828687277864</v>
+        <v>1.027861448493168</v>
       </c>
       <c r="E20">
-        <v>1.029066671279587</v>
+        <v>1.022498759201566</v>
       </c>
       <c r="F20">
-        <v>1.03811021224017</v>
+        <v>1.032425994048792</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056269717976305</v>
+        <v>1.051240723078966</v>
       </c>
       <c r="J20">
-        <v>1.041426680385651</v>
+        <v>1.033564870824807</v>
       </c>
       <c r="K20">
-        <v>1.049269489391892</v>
+        <v>1.04143146247604</v>
       </c>
       <c r="L20">
-        <v>1.042616974020149</v>
+        <v>1.036157204555172</v>
       </c>
       <c r="M20">
-        <v>1.051514481096583</v>
+        <v>1.045921667439546</v>
       </c>
       <c r="N20">
-        <v>1.042905625725109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015024102346841</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044956865467718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009108218281293</v>
+        <v>1.00208672853449</v>
       </c>
       <c r="D21">
-        <v>1.031655223681692</v>
+        <v>1.024890490619075</v>
       </c>
       <c r="E21">
-        <v>1.024689868480539</v>
+        <v>1.019298188612082</v>
       </c>
       <c r="F21">
-        <v>1.033376318890177</v>
+        <v>1.029271421044738</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054279567133728</v>
+        <v>1.049997841828375</v>
       </c>
       <c r="J21">
-        <v>1.038230003590404</v>
+        <v>1.031497462827581</v>
       </c>
       <c r="K21">
-        <v>1.04606071058932</v>
+        <v>1.039415165939209</v>
       </c>
       <c r="L21">
-        <v>1.039218109761985</v>
+        <v>1.033922947823859</v>
       </c>
       <c r="M21">
-        <v>1.047751804030094</v>
+        <v>1.043718676682103</v>
       </c>
       <c r="N21">
-        <v>1.039704409282148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01432802537972</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043172785724364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.005680670668995</v>
+        <v>0.9994302157476166</v>
       </c>
       <c r="D22">
-        <v>1.028977326772745</v>
+        <v>1.023018718686962</v>
       </c>
       <c r="E22">
-        <v>1.021884518242157</v>
+        <v>1.017286343623516</v>
       </c>
       <c r="F22">
-        <v>1.030341463471994</v>
+        <v>1.027305462862953</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05299094122222</v>
+        <v>1.049208724031605</v>
       </c>
       <c r="J22">
-        <v>1.036173542408337</v>
+        <v>1.030195437471021</v>
       </c>
       <c r="K22">
-        <v>1.043995794330942</v>
+        <v>1.038147558584992</v>
       </c>
       <c r="L22">
-        <v>1.037034557500162</v>
+        <v>1.032522960537143</v>
       </c>
       <c r="M22">
-        <v>1.045334896746483</v>
+        <v>1.042354730219196</v>
       </c>
       <c r="N22">
-        <v>1.037645027689323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013891541646995</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042093316730754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007504954131318</v>
+        <v>1.000843148838362</v>
       </c>
       <c r="D23">
-        <v>1.030402183077886</v>
+        <v>1.02401385368253</v>
       </c>
       <c r="E23">
-        <v>1.02337690811566</v>
+        <v>1.018355685216028</v>
       </c>
       <c r="F23">
-        <v>1.031956006350986</v>
+        <v>1.028350347106829</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053677687120851</v>
+        <v>1.049629295324669</v>
       </c>
       <c r="J23">
-        <v>1.037268248744137</v>
+        <v>1.030888108431947</v>
       </c>
       <c r="K23">
-        <v>1.045095061725262</v>
+        <v>1.038821987975105</v>
       </c>
       <c r="L23">
-        <v>1.038196636586325</v>
+        <v>1.033267475770104</v>
       </c>
       <c r="M23">
-        <v>1.046621131631811</v>
+        <v>1.043080041283828</v>
       </c>
       <c r="N23">
-        <v>1.038741288633685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01412374856363</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042667350315399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014529513566381</v>
+        <v>1.006304208789707</v>
       </c>
       <c r="D24">
-        <v>1.035897774327672</v>
+        <v>1.027868880345177</v>
       </c>
       <c r="E24">
-        <v>1.029139175215295</v>
+        <v>1.022504009001588</v>
       </c>
       <c r="F24">
-        <v>1.038188621574392</v>
+        <v>1.032405247109598</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056302467860001</v>
+        <v>1.051235791959771</v>
       </c>
       <c r="J24">
-        <v>1.041479509841565</v>
+        <v>1.033561724572084</v>
       </c>
       <c r="K24">
-        <v>1.049322507112004</v>
+        <v>1.041423646231197</v>
       </c>
       <c r="L24">
-        <v>1.042673194253217</v>
+        <v>1.036147127597197</v>
       </c>
       <c r="M24">
-        <v>1.0515767253015</v>
+        <v>1.045886224554031</v>
       </c>
       <c r="N24">
-        <v>1.042958530204909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015020032180247</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044888246187494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022378167553925</v>
+        <v>1.012442910066768</v>
       </c>
       <c r="D25">
-        <v>1.042054407349738</v>
+        <v>1.032218526228138</v>
       </c>
       <c r="E25">
-        <v>1.035607512673556</v>
+        <v>1.027196831909979</v>
       </c>
       <c r="F25">
-        <v>1.045182493606035</v>
+        <v>1.036995210395947</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05919355980596</v>
+        <v>1.053001251259251</v>
       </c>
       <c r="J25">
-        <v>1.046175194108258</v>
+        <v>1.036558656153543</v>
       </c>
       <c r="K25">
-        <v>1.054033165203624</v>
+        <v>1.04433646257304</v>
       </c>
       <c r="L25">
-        <v>1.047677117046045</v>
+        <v>1.039387128380411</v>
       </c>
       <c r="M25">
-        <v>1.057117681398187</v>
+        <v>1.0490451393964</v>
       </c>
       <c r="N25">
-        <v>1.047660882881864</v>
+        <v>1.016024638977874</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.0473882961324</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017189896438888</v>
+        <v>1.016145934869584</v>
       </c>
       <c r="D2">
-        <v>1.035593502001575</v>
+        <v>1.033836013460383</v>
       </c>
       <c r="E2">
-        <v>1.0308482111972</v>
+        <v>1.029879543993649</v>
       </c>
       <c r="F2">
-        <v>1.040568681410302</v>
+        <v>1.039427812032026</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I2">
-        <v>1.054332703054967</v>
+        <v>1.053405514301385</v>
       </c>
       <c r="J2">
-        <v>1.038868341341173</v>
+        <v>1.037854219706386</v>
       </c>
       <c r="K2">
-        <v>1.046578271743736</v>
+        <v>1.044843256701107</v>
       </c>
       <c r="L2">
-        <v>1.041893880300316</v>
+        <v>1.040937730925432</v>
       </c>
       <c r="M2">
-        <v>1.05149034577965</v>
+        <v>1.050363880609393</v>
       </c>
       <c r="N2">
-        <v>1.016798768286725</v>
+        <v>1.017198770754167</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049323492246526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.048431980797278</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023946987838787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020555125413134</v>
+        <v>1.01938329642992</v>
       </c>
       <c r="D3">
-        <v>1.037991964804373</v>
+        <v>1.03605640185535</v>
       </c>
       <c r="E3">
-        <v>1.033449120524744</v>
+        <v>1.03236387635067</v>
       </c>
       <c r="F3">
-        <v>1.043115260167798</v>
+        <v>1.041850610676624</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055256366730886</v>
+        <v>1.054228227937997</v>
       </c>
       <c r="J3">
-        <v>1.040500700791101</v>
+        <v>1.039359147110535</v>
       </c>
       <c r="K3">
-        <v>1.04816075663307</v>
+        <v>1.046247818861676</v>
       </c>
       <c r="L3">
-        <v>1.043671180427681</v>
+        <v>1.042598747429506</v>
       </c>
       <c r="M3">
-        <v>1.053224665372677</v>
+        <v>1.051974607975777</v>
       </c>
       <c r="N3">
-        <v>1.017345793375383</v>
+        <v>1.017599206677923</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050696072122192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049706748590099</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024222472704647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02269650492543</v>
+        <v>1.02144399294511</v>
       </c>
       <c r="D4">
-        <v>1.039520652308428</v>
+        <v>1.037472234635235</v>
       </c>
       <c r="E4">
-        <v>1.035109677645431</v>
+        <v>1.033950769407959</v>
       </c>
       <c r="F4">
-        <v>1.044741648257867</v>
+        <v>1.043398690639781</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055834527293879</v>
+        <v>1.054742316177872</v>
       </c>
       <c r="J4">
-        <v>1.041536926439353</v>
+        <v>1.04031462281661</v>
       </c>
       <c r="K4">
-        <v>1.049164395065497</v>
+        <v>1.04713849771766</v>
       </c>
       <c r="L4">
-        <v>1.044802050794096</v>
+        <v>1.043656004014193</v>
       </c>
       <c r="M4">
-        <v>1.054328481290183</v>
+        <v>1.053000095375224</v>
       </c>
       <c r="N4">
-        <v>1.01769299692596</v>
+        <v>1.017853436473255</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051569655771073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.050518342473201</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024394719217494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023588308109895</v>
+        <v>1.022302347969212</v>
       </c>
       <c r="D5">
-        <v>1.040157854917644</v>
+        <v>1.038062541463356</v>
       </c>
       <c r="E5">
-        <v>1.035802536221207</v>
+        <v>1.034613067530332</v>
       </c>
       <c r="F5">
-        <v>1.045420371429641</v>
+        <v>1.044044904830218</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056072974771508</v>
+        <v>1.054954116448057</v>
       </c>
       <c r="J5">
-        <v>1.041967855006949</v>
+        <v>1.040711999234915</v>
       </c>
       <c r="K5">
-        <v>1.049581542606239</v>
+        <v>1.047508660182563</v>
       </c>
       <c r="L5">
-        <v>1.04527297375879</v>
+        <v>1.044096356692397</v>
       </c>
       <c r="M5">
-        <v>1.054788207103495</v>
+        <v>1.053427272083123</v>
       </c>
       <c r="N5">
-        <v>1.017837373108424</v>
+        <v>1.017959166836472</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.0519334923635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.050856419505194</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024465710387018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023737557572614</v>
+        <v>1.022446008359435</v>
       </c>
       <c r="D6">
-        <v>1.040264527280164</v>
+        <v>1.038161371424703</v>
       </c>
       <c r="E6">
-        <v>1.035918566504471</v>
+        <v>1.034723990058519</v>
       </c>
       <c r="F6">
-        <v>1.045534041564433</v>
+        <v>1.044153140262604</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056112742444808</v>
+        <v>1.054989426583122</v>
       </c>
       <c r="J6">
-        <v>1.042039936775404</v>
+        <v>1.040778470236565</v>
       </c>
       <c r="K6">
-        <v>1.049651305539862</v>
+        <v>1.047570563166452</v>
       </c>
       <c r="L6">
-        <v>1.045351782837596</v>
+        <v>1.044170054617602</v>
       </c>
       <c r="M6">
-        <v>1.054865146352169</v>
+        <v>1.053498768110991</v>
       </c>
       <c r="N6">
-        <v>1.017861522217011</v>
+        <v>1.017976852693553</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051994383671611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.05091300301754</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024477547275139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022708454089892</v>
+        <v>1.021462134840522</v>
       </c>
       <c r="D7">
-        <v>1.039529187934768</v>
+        <v>1.037485236054925</v>
       </c>
       <c r="E7">
-        <v>1.035118956081342</v>
+        <v>1.033965247658056</v>
       </c>
       <c r="F7">
-        <v>1.044750736923948</v>
+        <v>1.043412063534152</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055837731481354</v>
+        <v>1.054748764230302</v>
       </c>
       <c r="J7">
-        <v>1.041542702878103</v>
+        <v>1.040326430504888</v>
       </c>
       <c r="K7">
-        <v>1.049169987688847</v>
+        <v>1.047148498989183</v>
       </c>
       <c r="L7">
-        <v>1.044808360831023</v>
+        <v>1.043667451532691</v>
       </c>
       <c r="M7">
-        <v>1.054334641022571</v>
+        <v>1.053010487641638</v>
       </c>
       <c r="N7">
-        <v>1.017694932289204</v>
+        <v>1.017882329625873</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051574530712861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.05052656714298</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024397216132555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01833481199705</v>
+        <v>1.017267564021481</v>
       </c>
       <c r="D8">
-        <v>1.036408964343686</v>
+        <v>1.034606416816575</v>
       </c>
       <c r="E8">
-        <v>1.031731915934064</v>
+        <v>1.030740693996507</v>
       </c>
       <c r="F8">
-        <v>1.041433816368319</v>
+        <v>1.040265218617858</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054648936363012</v>
+        <v>1.053698384029522</v>
       </c>
       <c r="J8">
-        <v>1.039424206724308</v>
+        <v>1.038386458983803</v>
       </c>
       <c r="K8">
-        <v>1.047117343370817</v>
+        <v>1.045337170343113</v>
       </c>
       <c r="L8">
-        <v>1.042498551443578</v>
+        <v>1.041519760655204</v>
       </c>
       <c r="M8">
-        <v>1.052080331881129</v>
+        <v>1.050926054992767</v>
       </c>
       <c r="N8">
-        <v>1.016985055591039</v>
+        <v>1.017418655202324</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049790420916826</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048876899169458</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024046100099761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010340693949821</v>
+        <v>1.009584426324048</v>
       </c>
       <c r="D9">
-        <v>1.030727073080262</v>
+        <v>1.029352622364144</v>
       </c>
       <c r="E9">
-        <v>1.025586137751286</v>
+        <v>1.024877509552871</v>
       </c>
       <c r="F9">
-        <v>1.035419477903647</v>
+        <v>1.034549841488746</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052401879181262</v>
+        <v>1.051693706432981</v>
       </c>
       <c r="J9">
-        <v>1.035533506687172</v>
+        <v>1.034803215029424</v>
       </c>
       <c r="K9">
-        <v>1.043340547542469</v>
+        <v>1.041986770822094</v>
       </c>
       <c r="L9">
-        <v>1.038277302304796</v>
+        <v>1.037579460858217</v>
       </c>
       <c r="M9">
-        <v>1.047962896625781</v>
+        <v>1.047106182537797</v>
       </c>
       <c r="N9">
-        <v>1.015681009576488</v>
+        <v>1.016474645431814</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046531781128552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045853754668782</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023375571285621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004851682110658</v>
+        <v>1.004339841659942</v>
       </c>
       <c r="D10">
-        <v>1.0268601476798</v>
+        <v>1.025801681651631</v>
       </c>
       <c r="E10">
-        <v>1.02142112415813</v>
+        <v>1.02093177185277</v>
       </c>
       <c r="F10">
-        <v>1.031379149079885</v>
+        <v>1.030736028750011</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050829037672088</v>
+        <v>1.050302136230713</v>
       </c>
       <c r="J10">
-        <v>1.032874120562715</v>
+        <v>1.032382325847016</v>
       </c>
       <c r="K10">
-        <v>1.040760797599763</v>
+        <v>1.039720198351807</v>
       </c>
       <c r="L10">
-        <v>1.035414092817139</v>
+        <v>1.034933108804178</v>
       </c>
       <c r="M10">
-        <v>1.04520405019586</v>
+        <v>1.044571657805177</v>
       </c>
       <c r="N10">
-        <v>1.014793377437863</v>
+        <v>1.015949692961478</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044399425434196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043898962550589</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022916488824456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002812774298161</v>
+        <v>1.002415128801228</v>
       </c>
       <c r="D11">
-        <v>1.025571994168887</v>
+        <v>1.024639804750518</v>
       </c>
       <c r="E11">
-        <v>1.020064470986931</v>
+        <v>1.019673300173955</v>
       </c>
       <c r="F11">
-        <v>1.030324710509782</v>
+        <v>1.029778545000147</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050375552556348</v>
+        <v>1.049924965911956</v>
       </c>
       <c r="J11">
-        <v>1.032069004930396</v>
+        <v>1.031687779599018</v>
       </c>
       <c r="K11">
-        <v>1.040027252680983</v>
+        <v>1.039111543972109</v>
       </c>
       <c r="L11">
-        <v>1.034617667408858</v>
+        <v>1.03423350488919</v>
       </c>
       <c r="M11">
-        <v>1.044696543418534</v>
+        <v>1.04415991416474</v>
       </c>
       <c r="N11">
-        <v>1.014557653192327</v>
+        <v>1.01601578601324</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044431025647285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044006558529777</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022830135632232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002194975398842</v>
+        <v>1.00182814131697</v>
       </c>
       <c r="D12">
-        <v>1.025245939272944</v>
+        <v>1.024345060439896</v>
       </c>
       <c r="E12">
-        <v>1.01973490001761</v>
+        <v>1.019368657712155</v>
       </c>
       <c r="F12">
-        <v>1.030197822626832</v>
+        <v>1.02967655555003</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050298365547559</v>
+        <v>1.049867376876287</v>
       </c>
       <c r="J12">
-        <v>1.031906729558738</v>
+        <v>1.031555331934702</v>
       </c>
       <c r="K12">
-        <v>1.039904939679335</v>
+        <v>1.039020252124256</v>
       </c>
       <c r="L12">
-        <v>1.034493531725712</v>
+        <v>1.034133960213175</v>
       </c>
       <c r="M12">
-        <v>1.044768479999704</v>
+        <v>1.044256460556618</v>
       </c>
       <c r="N12">
-        <v>1.014530317341992</v>
+        <v>1.016100092366045</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044812285680918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044407420050993</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02283878651874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00263185432822</v>
+        <v>1.002224770853163</v>
       </c>
       <c r="D13">
-        <v>1.025641359631882</v>
+        <v>1.024693898687157</v>
       </c>
       <c r="E13">
-        <v>1.020176351806402</v>
+        <v>1.019773121341196</v>
       </c>
       <c r="F13">
-        <v>1.030786224013249</v>
+        <v>1.030229881243813</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050511964234628</v>
+        <v>1.050053513872917</v>
       </c>
       <c r="J13">
-        <v>1.032233030259101</v>
+        <v>1.031842994123698</v>
       </c>
       <c r="K13">
-        <v>1.040250822589386</v>
+        <v>1.039320317313925</v>
       </c>
       <c r="L13">
-        <v>1.034884179305692</v>
+        <v>1.034488260902898</v>
       </c>
       <c r="M13">
-        <v>1.045304320582535</v>
+        <v>1.044757800701471</v>
       </c>
       <c r="N13">
-        <v>1.014663091102305</v>
+        <v>1.016169860443337</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045511097161814</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045079058731982</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022921898144564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003414762325947</v>
+        <v>1.002948087648719</v>
       </c>
       <c r="D14">
-        <v>1.026244057363033</v>
+        <v>1.025229390804647</v>
       </c>
       <c r="E14">
-        <v>1.020833545729909</v>
+        <v>1.020377205535961</v>
       </c>
       <c r="F14">
-        <v>1.031521256086276</v>
+        <v>1.030913858544364</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05079230732362</v>
+        <v>1.05029374518781</v>
       </c>
       <c r="J14">
-        <v>1.032681622064233</v>
+        <v>1.032234214512449</v>
       </c>
       <c r="K14">
-        <v>1.040703801238251</v>
+        <v>1.039707068286001</v>
       </c>
       <c r="L14">
-        <v>1.035389451869937</v>
+        <v>1.0349412828886</v>
       </c>
       <c r="M14">
-        <v>1.045888465325867</v>
+        <v>1.045291655904639</v>
       </c>
       <c r="N14">
-        <v>1.014828070040616</v>
+        <v>1.01621305958548</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04614532476129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045673594316179</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023013683214059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003837352995095</v>
+        <v>1.003341107354487</v>
       </c>
       <c r="D15">
-        <v>1.026552064851317</v>
+        <v>1.02550420818749</v>
       </c>
       <c r="E15">
-        <v>1.021166556517652</v>
+        <v>1.020684184984177</v>
       </c>
       <c r="F15">
-        <v>1.031865869881026</v>
+        <v>1.031233228576174</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050926586503587</v>
+        <v>1.050408142447149</v>
       </c>
       <c r="J15">
-        <v>1.032901232035508</v>
+        <v>1.03242529797858</v>
       </c>
       <c r="K15">
-        <v>1.040920791376788</v>
+        <v>1.039891315209839</v>
       </c>
       <c r="L15">
-        <v>1.035630271159237</v>
+        <v>1.035156471039467</v>
       </c>
       <c r="M15">
-        <v>1.046142130110548</v>
+        <v>1.045520432833227</v>
       </c>
       <c r="N15">
-        <v>1.014904596459101</v>
+        <v>1.016224420767079</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046383189122419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045891799663927</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023053822815907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006075354843534</v>
+        <v>1.005440101990028</v>
       </c>
       <c r="D16">
-        <v>1.028115501530795</v>
+        <v>1.026909590241287</v>
       </c>
       <c r="E16">
-        <v>1.022846155934172</v>
+        <v>1.022242334858741</v>
       </c>
       <c r="F16">
-        <v>1.033484850790787</v>
+        <v>1.032732711811172</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051567487317233</v>
+        <v>1.050954539330072</v>
       </c>
       <c r="J16">
-        <v>1.03397396549558</v>
+        <v>1.033363431238774</v>
       </c>
       <c r="K16">
-        <v>1.041959779146061</v>
+        <v>1.040774103966262</v>
       </c>
       <c r="L16">
-        <v>1.036779310649755</v>
+        <v>1.036185749665392</v>
       </c>
       <c r="M16">
-        <v>1.047239764420399</v>
+        <v>1.046500071512139</v>
       </c>
       <c r="N16">
-        <v>1.015258200799963</v>
+        <v>1.016264589408251</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047212223775546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.046627554040712</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023229431588119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00738296056277</v>
+        <v>1.006679434914575</v>
       </c>
       <c r="D17">
-        <v>1.02899927223165</v>
+        <v>1.027712719822625</v>
       </c>
       <c r="E17">
-        <v>1.023790903592215</v>
+        <v>1.023127485570626</v>
       </c>
       <c r="F17">
-        <v>1.034338174954914</v>
+        <v>1.033526031566746</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05190913167517</v>
+        <v>1.051248447497519</v>
       </c>
       <c r="J17">
-        <v>1.034560349396173</v>
+        <v>1.033883330250528</v>
       </c>
       <c r="K17">
-        <v>1.042517251888736</v>
+        <v>1.041251686983742</v>
       </c>
       <c r="L17">
-        <v>1.03739426603535</v>
+        <v>1.03674180400475</v>
       </c>
       <c r="M17">
-        <v>1.04776977688141</v>
+        <v>1.046970699259229</v>
       </c>
       <c r="N17">
-        <v>1.015442364863022</v>
+        <v>1.016300786219716</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047502769481181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.046871098335135</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02331614597325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008006960140055</v>
+        <v>1.007281594040932</v>
       </c>
       <c r="D18">
-        <v>1.02936762860623</v>
+        <v>1.0280540889479</v>
       </c>
       <c r="E18">
-        <v>1.024174730786832</v>
+        <v>1.023492810429896</v>
       </c>
       <c r="F18">
-        <v>1.034580401487357</v>
+        <v>1.033748453040354</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052018664467045</v>
+        <v>1.051342110442834</v>
       </c>
       <c r="J18">
-        <v>1.034770849987967</v>
+        <v>1.034072306148614</v>
       </c>
       <c r="K18">
-        <v>1.04269798767618</v>
+        <v>1.041405527023695</v>
       </c>
       <c r="L18">
-        <v>1.037588828159482</v>
+        <v>1.036917985214337</v>
       </c>
       <c r="M18">
-        <v>1.047827784382707</v>
+        <v>1.047009006895031</v>
       </c>
       <c r="N18">
-        <v>1.015492995185886</v>
+        <v>1.01629644836531</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047312289889272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.046664912434812</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023328713814062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008006972674323</v>
+        <v>1.007297100085458</v>
       </c>
       <c r="D19">
-        <v>1.029264260126111</v>
+        <v>1.027968929458468</v>
       </c>
       <c r="E19">
-        <v>1.02404421325666</v>
+        <v>1.023377158283334</v>
       </c>
       <c r="F19">
-        <v>1.034262208436401</v>
+        <v>1.033443677872393</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051917170080347</v>
+        <v>1.051251217810035</v>
       </c>
       <c r="J19">
-        <v>1.034637982184602</v>
+        <v>1.033954205194033</v>
       </c>
       <c r="K19">
-        <v>1.042534334430434</v>
+        <v>1.041259684733635</v>
       </c>
       <c r="L19">
-        <v>1.037398039667554</v>
+        <v>1.036741766174259</v>
       </c>
       <c r="M19">
-        <v>1.047453107990721</v>
+        <v>1.046647477010576</v>
       </c>
       <c r="N19">
-        <v>1.015423064309506</v>
+        <v>1.016235807075893</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046692639182955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.046055450556145</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023272886453718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00627366454697</v>
+        <v>1.005679880842219</v>
       </c>
       <c r="D20">
-        <v>1.027861448493168</v>
+        <v>1.026706838960415</v>
       </c>
       <c r="E20">
-        <v>1.022498759201566</v>
+        <v>1.02193687591246</v>
       </c>
       <c r="F20">
-        <v>1.032425994048792</v>
+        <v>1.031710950102952</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051240723078966</v>
+        <v>1.05065695178907</v>
       </c>
       <c r="J20">
-        <v>1.033564870824807</v>
+        <v>1.032993594878446</v>
       </c>
       <c r="K20">
-        <v>1.04143146247604</v>
+        <v>1.040295792230212</v>
       </c>
       <c r="L20">
-        <v>1.036157204555172</v>
+        <v>1.035604655961689</v>
       </c>
       <c r="M20">
-        <v>1.045921667439546</v>
+        <v>1.045218213274713</v>
       </c>
       <c r="N20">
-        <v>1.015024102346841</v>
+        <v>1.016013876638743</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044956865467718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.044400159067852</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023032663980614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00208672853449</v>
+        <v>1.001773796633578</v>
       </c>
       <c r="D21">
-        <v>1.024890490619075</v>
+        <v>1.024050807705184</v>
       </c>
       <c r="E21">
-        <v>1.019298188612082</v>
+        <v>1.01898391042381</v>
       </c>
       <c r="F21">
-        <v>1.029271421044738</v>
+        <v>1.028796983002059</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049997841828375</v>
+        <v>1.049603049631989</v>
       </c>
       <c r="J21">
-        <v>1.031497462827581</v>
+        <v>1.031197542887393</v>
       </c>
       <c r="K21">
-        <v>1.039415165939209</v>
+        <v>1.03859042007197</v>
       </c>
       <c r="L21">
-        <v>1.033922947823859</v>
+        <v>1.033614336567853</v>
       </c>
       <c r="M21">
-        <v>1.043718676682103</v>
+        <v>1.043252581628304</v>
       </c>
       <c r="N21">
-        <v>1.01432802537972</v>
+        <v>1.015949422321364</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043172785724364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.042803904007743</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022683738852958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9994302157476166</v>
+        <v>0.9992934589496359</v>
       </c>
       <c r="D22">
-        <v>1.023018718686962</v>
+        <v>1.022376638571067</v>
       </c>
       <c r="E22">
-        <v>1.017286343623516</v>
+        <v>1.017127320255621</v>
       </c>
       <c r="F22">
-        <v>1.027305462862953</v>
+        <v>1.026982028154226</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049208724031605</v>
+        <v>1.048932089166129</v>
       </c>
       <c r="J22">
-        <v>1.030195437471021</v>
+        <v>1.030064694034467</v>
       </c>
       <c r="K22">
-        <v>1.038147558584992</v>
+        <v>1.037517472059364</v>
       </c>
       <c r="L22">
-        <v>1.032522960537143</v>
+        <v>1.032366949680299</v>
       </c>
       <c r="M22">
-        <v>1.042354730219196</v>
+        <v>1.042037269054446</v>
       </c>
       <c r="N22">
-        <v>1.013891541646995</v>
+        <v>1.015904721129492</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042093316730754</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.041842068014232</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022464081088029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000843148838362</v>
+        <v>1.000602236759026</v>
       </c>
       <c r="D23">
-        <v>1.02401385368253</v>
+        <v>1.023258650140206</v>
       </c>
       <c r="E23">
-        <v>1.018355685216028</v>
+        <v>1.018105182021287</v>
       </c>
       <c r="F23">
-        <v>1.028350347106829</v>
+        <v>1.027939132939702</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049629295324669</v>
+        <v>1.049284251357101</v>
       </c>
       <c r="J23">
-        <v>1.030888108431947</v>
+        <v>1.030657482491948</v>
       </c>
       <c r="K23">
-        <v>1.038821987975105</v>
+        <v>1.038080533302067</v>
       </c>
       <c r="L23">
-        <v>1.033267475770104</v>
+        <v>1.033021596447592</v>
       </c>
       <c r="M23">
-        <v>1.043080041283828</v>
+        <v>1.042676228397015</v>
       </c>
       <c r="N23">
-        <v>1.01412374856363</v>
+        <v>1.015886972432349</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042667350315399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.042347760377218</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022578637869554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006304208789707</v>
+        <v>1.005710698761085</v>
       </c>
       <c r="D24">
-        <v>1.027868880345177</v>
+        <v>1.026714623551761</v>
       </c>
       <c r="E24">
-        <v>1.022504009001588</v>
+        <v>1.021942533004897</v>
       </c>
       <c r="F24">
-        <v>1.032405247109598</v>
+        <v>1.031690447952733</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051235791959771</v>
+        <v>1.050652205366309</v>
       </c>
       <c r="J24">
-        <v>1.033561724572084</v>
+        <v>1.03299067845121</v>
       </c>
       <c r="K24">
-        <v>1.041423646231197</v>
+        <v>1.040288298358395</v>
       </c>
       <c r="L24">
-        <v>1.036147127597197</v>
+        <v>1.035594967451761</v>
       </c>
       <c r="M24">
-        <v>1.045886224554031</v>
+        <v>1.045182997003758</v>
       </c>
       <c r="N24">
-        <v>1.015020032180247</v>
+        <v>1.016007048991762</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044888246187494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.044331691881299</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023027633019885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012442910066768</v>
+        <v>1.011596114880525</v>
       </c>
       <c r="D25">
-        <v>1.032218526228138</v>
+        <v>1.030724873403802</v>
       </c>
       <c r="E25">
-        <v>1.027196831909979</v>
+        <v>1.026406577032782</v>
       </c>
       <c r="F25">
-        <v>1.036995210395947</v>
+        <v>1.036040776305036</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053001251259251</v>
+        <v>1.052224844583552</v>
       </c>
       <c r="J25">
-        <v>1.036558656153543</v>
+        <v>1.035739427868857</v>
       </c>
       <c r="K25">
-        <v>1.04433646257304</v>
+        <v>1.042864239243511</v>
       </c>
       <c r="L25">
-        <v>1.039387128380411</v>
+        <v>1.038608342440454</v>
       </c>
       <c r="M25">
-        <v>1.0490451393964</v>
+        <v>1.048104230524002</v>
       </c>
       <c r="N25">
-        <v>1.016024638977874</v>
+        <v>1.016690997482933</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.0473882961324</v>
+        <v>1.046643636498502</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023552714439409</v>
       </c>
     </row>
   </sheetData>
